--- a/tests_cases/TC-Print2-08.xlsx
+++ b/tests_cases/TC-Print2-08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79112FB-1DBA-4868-9F9E-8457462B2C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812E904-357D-459B-BFA1-F7225CEF67F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75766848-CF9A-4957-8366-012110A48DB2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -159,13 +159,52 @@
   </si>
   <si>
     <t>TC-Print 2-08</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Tester: Ignacio Tsai</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>Not tested (Company)</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>didn't turn out as we expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
+    <t>DF-005: La pagina no tiene validacion de PC (se pueden ingresar letras)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +270,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +312,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -462,13 +540,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -479,12 +657,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -522,15 +694,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -540,9 +757,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -552,50 +766,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{165F0011-062D-4C1D-B8AC-4C63E4441C46}"/>
     <cellStyle name="Note 2" xfId="1" xr:uid="{773310D2-40BE-4702-A612-68711D52C9E5}"/>
@@ -910,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00554BDA-EB31-497E-AEB2-C27A666F9683}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,10 +1153,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -940,267 +1165,450 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="19">
+      <c r="C7" s="42"/>
+      <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19">
+      <c r="C8" s="32"/>
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19">
+      <c r="C9" s="32"/>
+      <c r="D9" s="16">
         <v>4</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19">
+      <c r="C10" s="32"/>
+      <c r="D10" s="16">
         <v>5</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19">
+      <c r="C11" s="32"/>
+      <c r="D11" s="16">
         <v>6</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="D12" s="19">
+      <c r="A12" s="17"/>
+      <c r="D12" s="16">
         <v>7</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="19">
+      <c r="D13" s="16">
         <v>8</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
         <v>1</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="42"/>
-    </row>
-    <row r="21" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
         <v>2</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="42"/>
-    </row>
-    <row r="22" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
         <v>3</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41">
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
         <v>4</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
         <v>5</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="42"/>
-    </row>
-    <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
         <v>6</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+    </row>
+    <row r="40" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="56"/>
+      <c r="C40" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="41">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B22:C22"/>
@@ -1209,20 +1617,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print2-08.xlsx
+++ b/tests_cases/TC-Print2-08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812E904-357D-459B-BFA1-F7225CEF67F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC85ACE6-9979-4C76-B6C6-60701F1CF564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75766848-CF9A-4957-8366-012110A48DB2}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>HU-2, HU-3</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>DF-005: La pagina no tiene validacion de PC (se pueden ingresar letras)</t>
+  </si>
+  <si>
+    <t>PE-16</t>
   </si>
 </sst>
 </file>
@@ -700,12 +700,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,104 +712,110 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00554BDA-EB31-497E-AEB2-C27A666F9683}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,15 +1148,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1205,82 +1205,82 @@
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="16">
         <v>2</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="16">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="16">
         <v>4</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="32"/>
+      <c r="B10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="23"/>
       <c r="D10" s="16">
         <v>5</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="16">
         <v>6</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
@@ -1297,312 +1297,299 @@
         <v>8</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28" t="s">
+      <c r="E19" s="54"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>1</v>
+      </c>
+      <c r="B20" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>1</v>
-      </c>
-      <c r="B20" s="25" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25" t="s">
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>2</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>2</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>3</v>
-      </c>
-      <c r="B22" s="25" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>4</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="55"/>
+    </row>
+    <row r="24" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>5</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="55"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>6</v>
+      </c>
+      <c r="B25" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>4</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>5</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>6</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="51" t="s">
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-    </row>
-    <row r="40" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
+  <mergeCells count="42">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:E16"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A28:H28"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
@@ -1614,9 +1601,23 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
